--- a/biology/Botanique/Calodendrum/Calodendrum.xlsx
+++ b/biology/Botanique/Calodendrum/Calodendrum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calodendrum est un genre d'arbres de la famille des Rutaceae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calodendrum est un genre d'arbres de la famille des Rutaceae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (6 décembre 2017)[2], Tropicos                                           (6 décembre 2017)[1] et The Plant List            (6 décembre 2017)[3], le genre comprend deux espèces :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (6 décembre 2017), Tropicos                                           (6 décembre 2017) et The Plant List            (6 décembre 2017), le genre comprend deux espèces :
 Calodendrum capense (L. fil.) Thunb.
 Calodendrum eickii Engl. − parfois écrite Calodendrum eichii.
-ITIS      (6 décembre 2017)[4] et NCBI  (6 décembre 2017)[5] ne reconnaissent que Calodendrum capense.
+ITIS      (6 décembre 2017) et NCBI  (6 décembre 2017) ne reconnaissent que Calodendrum capense.
 </t>
         </is>
       </c>
